--- a/Data/ThermalDiffusivity.xlsx
+++ b/Data/ThermalDiffusivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\APPM 4350\APPM-4350-Cooling-Sphere\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64A11D6-7184-4C89-9E07-E0F685FA72E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C103038-1380-4615-A8B6-7CD35623A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8" yWindow="8" windowWidth="20505" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="2453" windowWidth="20505" windowHeight="12944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Material</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Steel, Chrome-Nuckel, 18%cr-8%Ni</t>
+  </si>
+  <si>
+    <t>Steel, Stainless, 316</t>
+  </si>
+  <si>
+    <t>https://www.engineersedge.com/properties_of_metals.htm#:~:text=Thermal%20Properties%20of%20Metals%2C%20Conductivity%2C%20Thermal%20Expansion%2C%20Specific%20Heat,-Heat%20Transfer%20Engineering&amp;text=Metals%20in%20general%20have%20high,metals%20are%20shiny%20and%20lustrous</t>
+  </si>
+  <si>
+    <t>Steel, Chrome, Cr5%</t>
   </si>
 </sst>
 </file>
@@ -392,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -407,7 +416,7 @@
     <col min="5" max="5" width="15.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -443,7 +452,7 @@
         <v>2.0451364414177671E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -458,11 +467,11 @@
         <v>460</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ref="E3:E6" si="0">B3/(C3*D3)</f>
+        <f t="shared" ref="E3:E7" si="0">B3/(C3*D3)</f>
         <v>1.6860609745985241E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -481,9 +490,9 @@
         <v>6.2200659326988865E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -500,7 +509,7 @@
         <v>1.110130495839786E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -515,7 +524,32 @@
         <v>460</v>
       </c>
       <c r="E6" s="2">
+        <f t="shared" si="0"/>
         <v>4.5330411422151277E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="C7">
+        <f>8.0272 * POWER(10,3)</f>
+        <v>8027.2000000000007</v>
+      </c>
+      <c r="D7">
+        <v>502.1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0342818484073092E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">

--- a/Data/ThermalDiffusivity.xlsx
+++ b/Data/ThermalDiffusivity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\APPM 4350\APPM-4350-Cooling-Sphere\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\APPM 4350\APPM-4350-Cooling-Sphere\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C103038-1380-4615-A8B6-7CD35623A362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4431996D-18D3-4364-BA8A-C148B90A7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="2453" windowWidth="20505" windowHeight="12944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Material</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Steel, Chrome, Cr5%</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Stainless</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Steel, Stainless, 304</t>
+  </si>
+  <si>
+    <t>Steel, Stainless, 430</t>
   </si>
 </sst>
 </file>
@@ -116,10 +131,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -401,162 +426,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.06640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="5">
         <v>73</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="5">
         <f>7.897 * POWER(10,3)</f>
         <v>7897</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="5">
         <v>452</v>
       </c>
-      <c r="E2" s="2">
-        <f>B2/(C2*D2)</f>
+      <c r="E3" s="5">
+        <f>B3/(C3*D3)</f>
         <v>2.0451364414177671E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="5">
         <v>61</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="5">
         <f>7.865 * POWER(10,3)</f>
         <v>7865</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="5">
         <v>460</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" ref="E3:E7" si="0">B3/(C3*D3)</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E13" si="0">B4/(C4*D4)</f>
         <v>1.6860609745985241E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="5">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="5">
         <f>7.689 * POWER(10,3)</f>
         <v>7689</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="5">
         <v>460</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>6.2200659326988865E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="5">
         <v>40</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="5">
         <f>7.833 * POWER(10,3)</f>
         <v>7833</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="5">
         <v>460</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>1.110130495839786E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="7" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="5">
         <v>16.3</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="5">
         <f>7.817 * POWER(10,3)</f>
         <v>7817</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="5">
         <v>460</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>4.5330411422151277E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5">
+        <f>SUM(E3:E7) / COUNT(E3:E7)</f>
+        <v>1.1833277238694958E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B11" s="5">
         <v>16.260000000000002</v>
       </c>
-      <c r="C7">
+      <c r="C11" s="5">
         <f>8.0272 * POWER(10,3)</f>
         <v>8027.2000000000007</v>
       </c>
-      <c r="D7">
+      <c r="D11" s="5">
         <v>502.1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E11" s="5">
+        <f>B11/(C11*D11)</f>
+        <v>4.0342818484073092E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7916.4527470599996</v>
+      </c>
+      <c r="D12" s="5">
+        <v>502</v>
+      </c>
+      <c r="E12" s="5">
+        <f>B12/(C12*D12)</f>
+        <v>3.5228462931830939E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5">
+        <v>7611.97379525</v>
+      </c>
+      <c r="D13" s="5">
+        <v>460</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>4.0342818484073092E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
+        <v>3.9982773755326737E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="5">
+        <f>SUM(E11:E13)/ COUNT(E11:E13)</f>
+        <v>3.8518018390410249E-6</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.45">
+      <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" s="1"/>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A14:D14"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I17" r:id="rId1" location=":~:text=Thermal%20Properties%20of%20Metals%2C%20Conductivity%2C%20Thermal%20Expansion%2C%20Specific%20Heat,-Heat%20Transfer%20Engineering&amp;text=Metals%20in%20general%20have%20high,metals%20are%20shiny%20and%20lustrous" display="https://www.engineersedge.com/properties_of_metals.htm#:~:text=Thermal%20Properties%20of%20Metals%2C%20Conductivity%2C%20Thermal%20Expansion%2C%20Specific%20Heat,-Heat%20Transfer%20Engineering&amp;text=Metals%20in%20general%20have%20high,metals%20are%20shiny%20and%20lustrous" xr:uid="{4090D6D2-1793-48B8-B531-4C205DEE8F92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Data/ThermalDiffusivity.xlsx
+++ b/Data/ThermalDiffusivity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\APPM 4350\APPM-4350-Cooling-Sphere\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4431996D-18D3-4364-BA8A-C148B90A7829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8DBE83-9407-4E16-8C6A-E47027173F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20505" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -144,6 +141,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -439,236 +439,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>73</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f>7.897 * POWER(10,3)</f>
         <v>7897</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>452</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f>B3/(C3*D3)</f>
         <v>2.0451364414177671E-5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>61</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f>7.865 * POWER(10,3)</f>
         <v>7865</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>460</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E13" si="0">B4/(C4*D4)</f>
         <v>1.6860609745985241E-5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>22</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>7.689 * POWER(10,3)</f>
         <v>7689</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>460</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>6.2200659326988865E-6</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>40</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f>7.833 * POWER(10,3)</f>
         <v>7833</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>460</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>1.110130495839786E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>16.3</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f>7.817 * POWER(10,3)</f>
         <v>7817</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>460</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>4.5330411422151277E-6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="5">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="4">
         <f>SUM(E3:E7) / COUNT(E3:E7)</f>
         <v>1.1833277238694958E-5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>16.260000000000002</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>8.0272 * POWER(10,3)</f>
         <v>8027.2000000000007</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>502.1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f>B11/(C11*D11)</f>
         <v>4.0342818484073092E-6</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>7916.4527470599996</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>502</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f>B12/(C12*D12)</f>
         <v>3.5228462931830939E-6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>14</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>7611.97379525</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>460</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>3.9982773755326737E-6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="5">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="4">
         <f>SUM(E11:E13)/ COUNT(E11:E13)</f>
         <v>3.8518018390410249E-6</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.45">
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Data/ThermalDiffusivity.xlsx
+++ b/Data/ThermalDiffusivity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christopher\Desktop\APPM 4350\APPM-4350-Cooling-Sphere\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8DBE83-9407-4E16-8C6A-E47027173F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CEA302-9FD0-4D8D-8EA7-BF9B75DAFD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="20505" windowHeight="12945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
